--- a/每日日程.xlsx
+++ b/每日日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troy_tu/Troy_Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{27A5BEE2-65C5-D24F-864E-17A2D2CA836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB46F3F-D187-044E-9FC9-1FCB0EA7226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -890,12 +890,6 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,6 +897,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,17 +1186,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E3FC1B3-DBE9-AD4C-9363-AA5823EDF987}" name="Schedule2345" displayName="Schedule2345" ref="B4:I38" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="标题 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3E3FC1B3-DBE9-AD4C-9363-AA5823EDF987}" name="Schedule2345" displayName="Schedule2345" ref="B4:I38" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="标题 1">
   <autoFilter ref="B4:I38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{73EC13BB-F720-FE47-B315-C59F2957F17B}" name=" " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B002A137-6E71-AE4F-8C77-07493E6808CE}" name="周一" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7B3AF8F2-E65B-1742-B698-C7FE24715A8C}" name="周二" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B6036757-8E3F-6C40-8A72-4A4AB991C861}" name="周三" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C7279221-4402-3F41-B790-636EBC3A9354}" name="周四" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AF0C8EAE-BD0D-9042-AF15-DF26E62B1868}" name="周五" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4143F006-0B64-D241-9671-629EC877CF29}" name="周六" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{750E4E84-337C-0A43-8FF0-C1E5AEFCE0AC}" name="周日" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{73EC13BB-F720-FE47-B315-C59F2957F17B}" name=" " dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B002A137-6E71-AE4F-8C77-07493E6808CE}" name="周一" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{7B3AF8F2-E65B-1742-B698-C7FE24715A8C}" name="周二" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{B6036757-8E3F-6C40-8A72-4A4AB991C861}" name="周三" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{C7279221-4402-3F41-B790-636EBC3A9354}" name="周四" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{AF0C8EAE-BD0D-9042-AF15-DF26E62B1868}" name="周五" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{4143F006-0B64-D241-9671-629EC877CF29}" name="周六" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{750E4E84-337C-0A43-8FF0-C1E5AEFCE0AC}" name="周日" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -1230,17 +1230,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{355B5D1B-2D1E-5E42-BABF-781F5597981F}" name="Schedule23" displayName="Schedule23" ref="B4:I38" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="标题 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{355B5D1B-2D1E-5E42-BABF-781F5597981F}" name="Schedule23" displayName="Schedule23" ref="B4:I38" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="标题 1">
   <autoFilter ref="B4:I38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A652610B-13E4-5D48-81D7-7ECE26B77136}" name=" " dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{9F9839CF-A290-144D-B0AC-6CC029B1808E}" name="周一" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{23F0C3E6-2FFC-944D-87DD-1F58140174C1}" name="周二" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{02B4DBCF-6991-D04A-9636-708F1B353B9C}" name="周三" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6F6B5D96-9A65-EB46-B896-0CD333698B6D}" name="周四" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{D3D9CFB2-5005-3B4E-970C-EC1433EC864E}" name="周五" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{5A89EFC8-9FF2-7943-A213-E95D2AB294C3}" name="周六" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{88C53FCA-922D-BB4A-96EE-1471C82102B4}" name="周日" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{A652610B-13E4-5D48-81D7-7ECE26B77136}" name=" " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9F9839CF-A290-144D-B0AC-6CC029B1808E}" name="周一" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{23F0C3E6-2FFC-944D-87DD-1F58140174C1}" name="周二" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{02B4DBCF-6991-D04A-9636-708F1B353B9C}" name="周三" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6F6B5D96-9A65-EB46-B896-0CD333698B6D}" name="周四" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D3D9CFB2-5005-3B4E-970C-EC1433EC864E}" name="周五" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5A89EFC8-9FF2-7943-A213-E95D2AB294C3}" name="周六" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{88C53FCA-922D-BB4A-96EE-1471C82102B4}" name="周日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -1460,7 +1460,7 @@
   </sheetPr>
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1535,18 +1535,18 @@
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -1641,7 +1641,7 @@
       <c r="O6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="25" t="s">
         <v>59</v>
       </c>
       <c r="Q6" s="17" t="s">
@@ -1656,7 +1656,7 @@
       <c r="T6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="25" t="s">
         <v>83</v>
       </c>
       <c r="V6" s="17" t="s">
@@ -1689,7 +1689,7 @@
       <c r="N7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="P7" s="17" t="s">
@@ -1755,7 +1755,7 @@
       <c r="S8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="25" t="s">
         <v>79</v>
       </c>
       <c r="U8" s="17" t="s">
@@ -1806,7 +1806,7 @@
       <c r="S9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="U9" s="18" t="s">
@@ -1848,7 +1848,7 @@
       <c r="N10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="25" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="17" t="s">
@@ -1860,7 +1860,7 @@
       <c r="R10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="25" t="s">
         <v>75</v>
       </c>
       <c r="T10" s="18" t="s">
@@ -1967,7 +1967,7 @@
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2583,8 +2583,8 @@
   </sheetPr>
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2658,18 +2658,18 @@
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -2770,10 +2770,10 @@
       <c r="Q6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="T6" s="17" t="s">
@@ -2821,7 +2821,7 @@
       <c r="O7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="25" t="s">
         <v>60</v>
       </c>
       <c r="Q7" s="17" t="s">
@@ -2833,10 +2833,10 @@
       <c r="S7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="V7" s="18" t="s">
@@ -2875,7 +2875,7 @@
       <c r="N8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="25" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="17" t="s">
@@ -2893,7 +2893,7 @@
       <c r="T8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="U8" s="25" t="s">
         <v>91</v>
       </c>
       <c r="V8" s="17" t="s">
@@ -2932,10 +2932,10 @@
       <c r="N9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="25" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="17" t="s">
@@ -2953,7 +2953,7 @@
       <c r="U9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       <c r="T10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V10" s="27" t="s">
+      <c r="V10" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3043,16 +3043,16 @@
       <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="25" t="s">
         <v>65</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="25" t="s">
         <v>76</v>
       </c>
       <c r="T11" s="17" t="s">
@@ -3088,7 +3088,7 @@
       <c r="M12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="25" t="s">
         <v>58</v>
       </c>
       <c r="P12" s="17" t="s">
@@ -3124,7 +3124,7 @@
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3863,18 +3863,18 @@
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -4269,7 +4269,7 @@
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4888,18 +4888,18 @@
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -5294,7 +5294,7 @@
       <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>99</v>
       </c>
     </row>

--- a/每日日程.xlsx
+++ b/每日日程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troy_tu/Troy_Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB46F3F-D187-044E-9FC9-1FCB0EA7226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FB4E8C-00AD-2D49-9935-5F185BEE16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="146">
   <si>
     <t>每日计划</t>
   </si>
@@ -640,6 +640,240 @@
   </si>
   <si>
     <t>文件系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年真题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年真题</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2015年真题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2016年真题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>真题总结专项攻克</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读1篇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读英语真题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更正题目积累知识点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真题计算机</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真题计算机</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09计组更正</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统(备)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计网题目(备)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机真题更正</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法刷题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分的应用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计网强化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语作文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分二次型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重积分总结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计网应用层</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计网</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年真题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学总结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017真题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018真题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010真题总结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真题</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学更正</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真题总结</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题总结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历知识点安排</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷更正</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天三个算法题</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,8 +1023,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -807,6 +1047,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -819,7 +1070,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,6 +1155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1230,8 +1484,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{355B5D1B-2D1E-5E42-BABF-781F5597981F}" name="Schedule23" displayName="Schedule23" ref="B4:I38" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="标题 1">
-  <autoFilter ref="B4:I38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{355B5D1B-2D1E-5E42-BABF-781F5597981F}" name="Schedule23" displayName="Schedule23" ref="B4:I39" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="标题 1">
+  <autoFilter ref="B4:I39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A652610B-13E4-5D48-81D7-7ECE26B77136}" name=" " dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{9F9839CF-A290-144D-B0AC-6CC029B1808E}" name="周一" dataDxfId="6"/>
@@ -2583,7 +2837,7 @@
   </sheetPr>
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -3788,8 +4042,8 @@
   </sheetPr>
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" topLeftCell="F2" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3945,20 +4199,18 @@
       <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>19</v>
@@ -3999,13 +4251,17 @@
       <c r="C7" s="13"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="H7" s="13" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>20</v>
@@ -4045,14 +4301,20 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
+      <c r="E8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>25</v>
@@ -4092,14 +4354,20 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
+      <c r="E9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>21</v>
@@ -4144,19 +4412,19 @@
         <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>22</v>
@@ -4193,14 +4461,20 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13" t="s">
-        <v>16</v>
+      <c r="E11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>23</v>
@@ -4231,14 +4505,20 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13" t="s">
-        <v>16</v>
+      <c r="E12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M12" s="18" t="s">
         <v>33</v>
@@ -4260,14 +4540,20 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
+      <c r="E13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M13" s="24" t="s">
         <v>99</v>
@@ -4284,15 +4570,9 @@
       <c r="D14" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
         <v>98</v>
       </c>
@@ -4388,11 +4668,21 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="E18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="21">
@@ -4401,13 +4691,21 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="21">
@@ -4416,13 +4714,21 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="21">
@@ -4436,18 +4742,20 @@
         <v>96</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="22">
@@ -4456,13 +4764,21 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="22">
@@ -4471,13 +4787,21 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="22">
@@ -4486,13 +4810,21 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="22">
@@ -4582,11 +4914,21 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="23">
@@ -4595,11 +4937,21 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="23">
@@ -4608,11 +4960,21 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23">
@@ -4626,19 +4988,19 @@
         <v>96</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,11 +5010,21 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="22">
@@ -4661,11 +5033,21 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="E33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="22">
@@ -4674,11 +5056,21 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="E34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="10">
@@ -4811,10 +5203,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W38"/>
+  <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4851,7 +5243,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
@@ -5012,7 +5404,7 @@
       <c r="U6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5021,17 +5413,23 @@
         <f>B6+TIME(0,30,0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="M7" s="18" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5454,7 @@
       <c r="T7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="V7" s="18" t="s">
@@ -5068,30 +5466,36 @@
         <f>B7+TIME(0,30,0)</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="M8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="25" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R8" s="17" t="s">
@@ -5100,7 +5504,7 @@
       <c r="S8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="25" t="s">
         <v>79</v>
       </c>
       <c r="U8" s="17" t="s">
@@ -5115,17 +5519,23 @@
         <f>B8+TIME(0,30,0)</f>
         <v>0.37499999999999994</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="M9" s="18" t="s">
         <v>21</v>
       </c>
@@ -5147,7 +5557,7 @@
       <c r="S9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="U9" s="18" t="s">
@@ -5169,20 +5579,16 @@
         <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>16</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="M10" s="18" t="s">
         <v>22</v>
       </c>
@@ -5207,7 +5613,7 @@
       <c r="T10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5216,33 +5622,39 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="M11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="25" t="s">
         <v>65</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="25" t="s">
         <v>76</v>
       </c>
       <c r="T11" s="17" t="s">
@@ -5254,17 +5666,23 @@
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="M12" s="18" t="s">
         <v>33</v>
       </c>
@@ -5283,17 +5701,23 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="M13" s="24" t="s">
         <v>99</v>
       </c>
@@ -5352,7 +5776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
@@ -5379,7 +5803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
@@ -5405,51 +5829,80 @@
       <c r="I17" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="21">
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="21">
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="21">
         <f t="shared" si="0"/>
         <v>0.625</v>
@@ -5461,65 +5914,87 @@
         <v>96</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>96</v>
+        <v>138</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="H21" s="13"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="22">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="22">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="13"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
@@ -5546,7 +6021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
@@ -5573,7 +6048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
@@ -5600,46 +6075,76 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="23">
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="23">
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="23">
         <f t="shared" si="0"/>
         <v>0.81250000000000033</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23">
         <f t="shared" si="0"/>
         <v>0.8333333333333337</v>
@@ -5654,7 +6159,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>96</v>
@@ -5666,16 +6171,26 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="22">
         <f t="shared" si="0"/>
         <v>0.85416666666666707</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
@@ -5684,11 +6199,21 @@
         <f t="shared" si="0"/>
         <v>0.87500000000000044</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
@@ -5697,11 +6222,21 @@
         <f t="shared" si="0"/>
         <v>0.89583333333333381</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
@@ -5812,6 +6347,16 @@
       <c r="I38" s="13" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="39" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
